--- a/pred_ohlcv/54_21/2019-11-24 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 WET ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>54711302.93679859</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>54715875.9350986</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>54588382.55867726</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>54722106.87549859</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54840897.69729859</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55385868.45805377</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>55988583.41861334</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>56267910.79191335</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>56158375.89941335</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>56321356.58591335</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>55652826.14751334</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>56483308.38731334</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>56605763.66711334</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>57694701.56711334</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>56540781.88921334</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56779892.91561334</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>56742564.206993</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>57068008.030393</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>57067235.355393</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>57300091.5790185</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>58068106.34482855</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>59937552.17982129</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>58766184.27869439</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>58863343.78109439</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>63292501.44399439</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>61378208.31489439</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>60973891.641495</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>60750276.01878957</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>60866876.73951911</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>60346626.87307899</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>61172853.81056651</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>60842227.95546652</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>59588595.23496652</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>59588673.60496651</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>59463897.25636651</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>59463985.25636651</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>58937752.38690411</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>59753328.11840411</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>59746963.0043041</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>59801299.3613041</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>59797814.1614041</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>59640861.5952041</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>59604860.7973041</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>59661331.5395041</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>58909487.1333041</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59653822.32100411</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>59755549.78480411</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>59619864.68940411</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>59747669.30580411</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>59787047.53570411</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>59787047.53570411</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>59852579.51790411</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>59857178.29860411</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 WET ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>55009794.7973986</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>54739188.7277986</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>54909288.7277986</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>54711401.93679859</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>54711302.93679859</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>54715875.9350986</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>54722106.87549859</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54840897.69729859</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>55385868.45805377</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>55988583.41861334</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>56267910.79191335</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>56158375.89941335</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>56321356.58591335</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>55652826.14751334</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>56483308.38731334</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>56605763.66711334</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>57694701.56711334</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>56540781.88921334</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56779892.91561334</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>56742564.206993</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>57068008.030393</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>57067235.355393</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>57300091.5790185</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>58068106.34482855</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>59937552.17982129</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>58766184.27869439</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>58863343.78109439</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>60346626.87307899</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>61172853.81056651</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>61019651.13306651</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>60842227.95546652</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>59588595.23496652</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>59463985.25636651</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>58937752.38690411</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>59753328.11840411</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>59746963.0043041</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>59801299.3613041</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>59797814.1614041</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>59640861.5952041</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>59604860.7973041</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>59661331.5395041</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>58909487.1333041</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59653822.32100411</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>59755549.78480411</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>59619864.68940411</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>59865830.81980411</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>59747669.30580411</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>59787047.53570411</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
